--- a/biology/Botanique/Forêt_de_Banne/Forêt_de_Banne.xlsx
+++ b/biology/Botanique/Forêt_de_Banne/Forêt_de_Banne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Banne</t>
+          <t>Forêt_de_Banne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Banne est la forêt recouvrant en partie le plateau karstique qui s'étend au-dessus de Banne dans le département de l'Ardèche.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Banne</t>
+          <t>Forêt_de_Banne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt de Banne recouvre les collines de la Bonne Vielle (altitude 430 m), le Serre du Mas (206 m), la Marinière (223 m), la Roumésière (253 m) et  le Plantier (238 m).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Banne</t>
+          <t>Forêt_de_Banne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Banne est classée zone naturelle d'intérêt écologique, faunistique et floristique de type I sous le numéro no 07170024[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Banne est classée zone naturelle d'intérêt écologique, faunistique et floristique de type I sous le numéro no 07170024.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Banne</t>
+          <t>Forêt_de_Banne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +592,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mammifères
-Vespertilion à oreilles échancrées, (Myotis emarginatus)
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vespertilion à oreilles échancrées, (Myotis emarginatus)
 Pipistrelle de Nathusius, (Pipistrellus nathusii)
 Petit rhinolophe, (Rhinolophus hipposideros)
-Vespère de Savi, (Hypsugo savii)
-Oiseaux</t>
+Vespère de Savi, (Hypsugo savii)</t>
         </is>
       </c>
     </row>
@@ -591,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Banne</t>
+          <t>Forêt_de_Banne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +629,9 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt est une forêt de chênes verts, méso- et supra-méditerranéennes.
 On notes les plantes rares et protégées suivantes : Colchique de Naples Colchicum neapolitanum,
